--- a/Прикладная статистика/КурсоваяСтатистика.xlsx
+++ b/Прикладная статистика/КурсоваяСтатистика.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Влад\Desktop\Университет\Прикладная статистика\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23E3643-DE32-4B19-AAB4-C431F2CF58A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11490" tabRatio="798" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="798" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="1" r:id="rId1"/>
@@ -17,16 +18,28 @@
     <sheet name="Сводные таблица по количетвен" sheetId="4" r:id="rId3"/>
     <sheet name="лр4" sheetId="5" r:id="rId4"/>
     <sheet name="лр3" sheetId="6" r:id="rId5"/>
+    <sheet name="лр5" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="97">
   <si>
     <t>Легенда</t>
   </si>
@@ -226,28 +239,103 @@
     <t>Детерминация</t>
   </si>
   <si>
-    <t>Количество по полю Win rate %</t>
-  </si>
-  <si>
-    <t>Среднее по полю Win rate %2</t>
-  </si>
-  <si>
-    <t>Смещенная дисперсия по полю Win rate %2</t>
-  </si>
-  <si>
     <t>сумма</t>
   </si>
   <si>
-    <t>&lt;</t>
+    <t>xi</t>
   </si>
   <si>
-    <t>нет связи</t>
+    <t>кол-во</t>
+  </si>
+  <si>
+    <t>(xi-x)2</t>
+  </si>
+  <si>
+    <t>Сумма</t>
+  </si>
+  <si>
+    <t>Кол-во</t>
+  </si>
+  <si>
+    <t>Дисперсия гр</t>
+  </si>
+  <si>
+    <t>Дисперсия вн гр</t>
+  </si>
+  <si>
+    <t>сумма ГЛ</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>x общ</t>
+  </si>
+  <si>
+    <t>дисперсия меж гр</t>
+  </si>
+  <si>
+    <t>Dобщ</t>
+  </si>
+  <si>
+    <t>Правила сложения</t>
+  </si>
+  <si>
+    <t>&lt;0.5 =&gt; ВЗАИМОСВЯЗИ НЕТ</t>
+  </si>
+  <si>
+    <t>Абс прирос т</t>
+  </si>
+  <si>
+    <t>Темпы роста,%</t>
+  </si>
+  <si>
+    <t>Темпы прироста,%</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Базисные</t>
+  </si>
+  <si>
+    <t>Цепные</t>
+  </si>
+  <si>
+    <t>январь</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>февраль</t>
+  </si>
+  <si>
+    <t>март</t>
+  </si>
+  <si>
+    <t>апрель</t>
+  </si>
+  <si>
+    <t>Среднее</t>
+  </si>
+  <si>
+    <t>средний абсолютный прирост</t>
+  </si>
+  <si>
+    <t>средний темп роста</t>
+  </si>
+  <si>
+    <t>средний темп прироста</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -269,7 +357,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -282,8 +370,26 @@
         <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -306,8 +412,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left"/>
@@ -319,8 +440,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -347,15 +469,49 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Заглавие сводной таблицы" xfId="1"/>
-    <cellStyle name="Значение сводной таблицы" xfId="2"/>
-    <cellStyle name="Категория сводной таблицы" xfId="3"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Поле сводной таблицы" xfId="4"/>
-    <cellStyle name="Результат сводной таблицы" xfId="5"/>
-    <cellStyle name="Угол сводной таблицы" xfId="6"/>
+  <cellStyles count="8">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="7" builtinId="5"/>
+    <cellStyle name="Заглавие сводной таблицы" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Значение сводной таблицы" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Категория сводной таблицы" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Поле сводной таблицы" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Результат сводной таблицы" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Угол сводной таблицы" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -441,7 +597,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -457,7 +613,6 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -503,6 +658,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -520,7 +716,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Итог</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -736,7 +932,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -822,7 +1017,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -838,7 +1033,6 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -884,6 +1078,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -901,7 +1136,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Итог</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1117,7 +1352,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1203,7 +1437,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1219,7 +1453,6 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1265,6 +1498,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -1282,7 +1556,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Итог</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1498,7 +1772,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1584,7 +1857,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1600,7 +1873,6 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1646,6 +1918,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -1663,7 +1976,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Итог</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1867,7 +2180,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1953,7 +2265,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1969,7 +2281,6 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2015,6 +2326,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -2032,7 +2384,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Итог</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2224,7 +2576,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2310,7 +2661,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2326,7 +2677,6 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2372,6 +2722,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -2399,7 +2790,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Итог</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2597,7 +2988,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2683,7 +3073,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2695,7 +3085,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2781,86 +3170,150 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.15201133982881221"/>
+                  <c:y val="-0.27182904953782183"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>лр4!$A$2:$A$26</c:f>
+              <c:f>лр4!$B$2:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>20.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>17.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>13.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>11.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>4.9000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>4.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3336,7 +3789,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3366,6 +3818,312 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Количество сыгранных</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> игр за кварталы</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>лр5!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>январь</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>февраль</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>март</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>апрель</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>лр5!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>4899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5633</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6760</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6490</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C1CD-41D8-AD9C-B0D0385BB06C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1233146096"/>
+        <c:axId val="1233146512"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1233146096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1233146512"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1233146512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1233146096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3683,6 +4441,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -7198,6 +7996,522 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -7234,7 +8548,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7264,7 +8584,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7294,7 +8620,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7329,7 +8661,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7359,7 +8697,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7389,7 +8733,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7424,7 +8774,54 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21C27B46-9434-4934-A8A9-9AB595D10229}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7443,7 +8840,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Student" refreshedDate="45243.469748148149" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="25">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Student" refreshedDate="45243.469748148149" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="25" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:F26" sheet="Данные"/>
   </cacheSource>
@@ -7797,7 +9194,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000002000000}" name="Сводная таблица4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A33:B42" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -7896,12 +9293,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="Сводная таблица3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A16:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -8000,12 +9400,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Сводная таблица1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -8116,12 +9519,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000002000000}" name="Сводная таблица6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A23:B29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -8199,12 +9605,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="Сводная таблица5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A14:B19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -8279,12 +9688,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="Сводная таблица2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -8377,88 +9789,8 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A1:D10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="10" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="9">
-        <item x="5"/>
-        <item x="0"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="5"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <dataFields count="3">
-    <dataField name="Количество по полю Win rate %" fld="1" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Среднее по полю Win rate %2" fld="1" subtotal="average" baseField="5" baseItem="0"/>
-    <dataField name="Смещенная дисперсия по полю Win rate %2" fld="1" subtotal="var" baseField="5" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -8726,16 +10058,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F26"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8756,7 +10088,7 @@
       </c>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -8777,7 +10109,7 @@
       </c>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -8798,7 +10130,7 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -8819,7 +10151,7 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -8840,7 +10172,7 @@
       </c>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
@@ -8861,7 +10193,7 @@
       </c>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
@@ -8882,7 +10214,7 @@
       </c>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -8903,7 +10235,7 @@
       </c>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -8924,7 +10256,7 @@
       </c>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
@@ -8944,7 +10276,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
@@ -8964,7 +10296,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>24</v>
       </c>
@@ -8984,7 +10316,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
@@ -9004,7 +10336,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
@@ -9024,7 +10356,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>27</v>
       </c>
@@ -9044,7 +10376,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>28</v>
       </c>
@@ -9064,7 +10396,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>29</v>
       </c>
@@ -9084,7 +10416,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>30</v>
       </c>
@@ -9104,7 +10436,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>31</v>
       </c>
@@ -9124,7 +10456,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>32</v>
       </c>
@@ -9144,7 +10476,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>33</v>
       </c>
@@ -9164,7 +10496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>34</v>
       </c>
@@ -9184,7 +10516,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>35</v>
       </c>
@@ -9204,7 +10536,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>36</v>
       </c>
@@ -9224,7 +10556,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>37</v>
       </c>
@@ -9244,7 +10576,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>38</v>
       </c>
@@ -9271,20 +10603,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>39</v>
       </c>
@@ -9292,7 +10624,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>17</v>
       </c>
@@ -9300,7 +10632,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -9308,7 +10640,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>21</v>
       </c>
@@ -9316,7 +10648,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
@@ -9324,7 +10656,7 @@
         <v>26.17</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
@@ -9332,7 +10664,7 @@
         <v>17.295000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>19</v>
       </c>
@@ -9340,7 +10672,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>11</v>
       </c>
@@ -9348,7 +10680,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
@@ -9356,7 +10688,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>40</v>
       </c>
@@ -9364,7 +10696,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>39</v>
       </c>
@@ -9372,7 +10704,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>17</v>
       </c>
@@ -9380,7 +10712,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>7</v>
       </c>
@@ -9388,7 +10720,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>21</v>
       </c>
@@ -9396,7 +10728,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>9</v>
       </c>
@@ -9404,7 +10736,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>15</v>
       </c>
@@ -9412,7 +10744,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>19</v>
       </c>
@@ -9420,7 +10752,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>11</v>
       </c>
@@ -9428,7 +10760,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>13</v>
       </c>
@@ -9436,7 +10768,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>40</v>
       </c>
@@ -9444,7 +10776,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>39</v>
       </c>
@@ -9452,7 +10784,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>17</v>
       </c>
@@ -9460,7 +10792,7 @@
         <v>0.84199999999999997</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>7</v>
       </c>
@@ -9468,7 +10800,7 @@
         <v>0.70699999999999996</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>21</v>
       </c>
@@ -9476,7 +10808,7 @@
         <v>0.84299999999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>9</v>
       </c>
@@ -9484,7 +10816,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>15</v>
       </c>
@@ -9492,7 +10824,7 @@
         <v>0.85499999999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>19</v>
       </c>
@@ -9500,7 +10832,7 @@
         <v>0.67100000000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>11</v>
       </c>
@@ -9508,7 +10840,7 @@
         <v>0.69399999999999995</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>13</v>
       </c>
@@ -9516,7 +10848,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>40</v>
       </c>
@@ -9531,20 +10863,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>39</v>
       </c>
@@ -9552,7 +10884,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>41</v>
       </c>
@@ -9560,7 +10892,7 @@
         <v>0.85499999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>42</v>
       </c>
@@ -9568,7 +10900,7 @@
         <v>0.80700000000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>43</v>
       </c>
@@ -9576,7 +10908,7 @@
         <v>0.70399999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>44</v>
       </c>
@@ -9584,7 +10916,7 @@
         <v>0.70099999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>45</v>
       </c>
@@ -9592,7 +10924,7 @@
         <v>0.64900000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>46</v>
       </c>
@@ -9600,7 +10932,7 @@
         <v>0.68600000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>40</v>
       </c>
@@ -9608,7 +10940,7 @@
         <v>0.85499999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>39</v>
       </c>
@@ -9616,7 +10948,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>49</v>
       </c>
@@ -9624,7 +10956,7 @@
         <v>0.66100000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>50</v>
       </c>
@@ -9632,7 +10964,7 @@
         <v>0.60799999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>51</v>
       </c>
@@ -9640,7 +10972,7 @@
         <v>0.629</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>52</v>
       </c>
@@ -9648,7 +10980,7 @@
         <v>0.68600000000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>40</v>
       </c>
@@ -9656,7 +10988,7 @@
         <v>0.60799999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>39</v>
       </c>
@@ -9664,7 +10996,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>53</v>
       </c>
@@ -9672,7 +11004,7 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>54</v>
       </c>
@@ -9680,7 +11012,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>55</v>
       </c>
@@ -9688,7 +11020,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>56</v>
       </c>
@@ -9696,7 +11028,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>57</v>
       </c>
@@ -9704,7 +11036,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>40</v>
       </c>
@@ -9719,20 +11051,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>63</v>
       </c>
@@ -9743,7 +11078,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -9754,7 +11089,7 @@
         <v>68.599999999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -9768,7 +11103,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -9779,7 +11114,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -9790,7 +11125,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -9801,7 +11136,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -9812,7 +11147,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -9823,7 +11158,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -9834,7 +11169,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -9845,7 +11180,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -9856,7 +11191,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -9867,7 +11202,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -9878,7 +11213,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -9889,7 +11224,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -9900,7 +11235,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -9911,7 +11246,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -9922,7 +11257,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -9933,7 +11268,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>18</v>
       </c>
@@ -9950,7 +11285,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>19</v>
       </c>
@@ -9969,7 +11304,7 @@
         <v>7.9163467281005741E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>20</v>
       </c>
@@ -9980,7 +11315,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>21</v>
       </c>
@@ -9991,7 +11326,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>22</v>
       </c>
@@ -10002,7 +11337,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>23</v>
       </c>
@@ -10013,7 +11348,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>24</v>
       </c>
@@ -10024,7 +11359,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>25</v>
       </c>
@@ -10042,294 +11377,1285 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:Q31"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" customWidth="1"/>
+    <col min="12" max="12" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="12">
+        <f>61/100</f>
+        <v>0.61</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="D2" s="4">
+        <v>51</v>
+      </c>
+      <c r="E2" s="4">
+        <v>340</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="12">
+        <f>61/100</f>
+        <v>0.61</v>
+      </c>
+      <c r="J2" s="12">
+        <f>70/100</f>
+        <v>0.7</v>
+      </c>
+      <c r="K2" s="12">
+        <f>81/100</f>
+        <v>0.81</v>
+      </c>
+      <c r="M2" s="13">
+        <f>POWER(I2*$I$21,2)</f>
+        <v>0.1597925672753906</v>
+      </c>
+      <c r="N2" s="13">
+        <f>POWER(J2*$J$21,2)</f>
+        <v>0.24561935999999993</v>
+      </c>
+      <c r="O2" s="13">
+        <f>POWER(K2*$K$21,2)</f>
+        <v>0.46019264062499993</v>
+      </c>
+      <c r="Q2" s="13">
+        <f>POWER(B2-$I$27,2)</f>
+        <v>7.2249999999999936E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="12">
+        <f>61/100</f>
+        <v>0.61</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="D3" s="4">
+        <v>272</v>
+      </c>
+      <c r="E3" s="4">
+        <v>387</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="12">
+        <f>61/100</f>
+        <v>0.61</v>
+      </c>
+      <c r="J3" s="12">
+        <f>70/100</f>
+        <v>0.7</v>
+      </c>
+      <c r="K3" s="12">
+        <f>84/100</f>
+        <v>0.84</v>
+      </c>
+      <c r="M3" s="13">
+        <f t="shared" ref="M3:M17" si="0">POWER(I3*$I$21,2)</f>
+        <v>0.1597925672753906</v>
+      </c>
+      <c r="N3" s="13">
+        <f t="shared" ref="N3:N17" si="1">POWER(J3*$J$21,2)</f>
+        <v>0.24561935999999993</v>
+      </c>
+      <c r="O3" s="13">
+        <f t="shared" ref="O3:O5" si="2">POWER(K3*$K$21,2)</f>
+        <v>0.49491224999999989</v>
+      </c>
+      <c r="Q3" s="13">
+        <f t="shared" ref="Q3:Q26" si="3">POWER(B3-$I$27,2)</f>
+        <v>7.2249999999999936E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="12">
+        <f>63/100</f>
+        <v>0.63</v>
+      </c>
+      <c r="C4" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="D4" s="4">
+        <v>6.4320000000000004</v>
+      </c>
+      <c r="E4" s="4">
+        <v>324</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="12">
+        <f>63/100</f>
+        <v>0.63</v>
+      </c>
+      <c r="J4" s="12">
+        <f>71/100</f>
+        <v>0.71</v>
+      </c>
+      <c r="K4" s="12">
+        <f t="shared" ref="K4:K5" si="4">84/100</f>
+        <v>0.84</v>
+      </c>
+      <c r="M4" s="13">
+        <f t="shared" si="0"/>
+        <v>0.17044254219726562</v>
+      </c>
+      <c r="N4" s="13">
+        <f t="shared" si="1"/>
+        <v>0.25268718239999988</v>
+      </c>
+      <c r="O4" s="13">
+        <f t="shared" si="2"/>
+        <v>0.49491224999999989</v>
+      </c>
+      <c r="Q4" s="13">
+        <f t="shared" si="3"/>
+        <v>4.2249999999999927E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="12">
+        <f>63/100</f>
+        <v>0.63</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>461</v>
+      </c>
+      <c r="E5" s="4">
+        <v>445</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="12">
+        <f>63/100</f>
+        <v>0.63</v>
+      </c>
+      <c r="J5" s="12">
+        <f>71/100</f>
+        <v>0.71</v>
+      </c>
+      <c r="K5" s="12">
+        <f>86/100</f>
+        <v>0.86</v>
+      </c>
+      <c r="M5" s="13">
+        <f t="shared" si="0"/>
+        <v>0.17044254219726562</v>
+      </c>
+      <c r="N5" s="13">
+        <f t="shared" si="1"/>
+        <v>0.25268718239999988</v>
+      </c>
+      <c r="O5" s="13">
+        <f t="shared" si="2"/>
+        <v>0.51876006249999995</v>
+      </c>
+      <c r="Q5" s="13">
+        <f t="shared" si="3"/>
+        <v>4.2249999999999927E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="12">
+        <f>64/100</f>
+        <v>0.64</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>316</v>
+      </c>
+      <c r="E6" s="4">
+        <v>437</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="12">
+        <f>64/100</f>
+        <v>0.64</v>
+      </c>
+      <c r="J6" s="12">
+        <f>72/100</f>
+        <v>0.72</v>
+      </c>
+      <c r="M6" s="13">
+        <f t="shared" si="0"/>
+        <v>0.17589636</v>
+      </c>
+      <c r="N6" s="13">
+        <f t="shared" si="1"/>
+        <v>0.2598552576</v>
+      </c>
+      <c r="O6" s="13"/>
+      <c r="Q6" s="13">
+        <f t="shared" si="3"/>
+        <v>3.024999999999993E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="12">
+        <f>64.9/100</f>
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="C7" s="4">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="D7" s="4">
+        <v>26.17</v>
+      </c>
+      <c r="E7" s="4">
+        <v>474</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="12">
+        <f>64.9/100</f>
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="M7" s="13">
+        <f t="shared" si="0"/>
+        <v>0.18087822931728514</v>
+      </c>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="Q7" s="13">
+        <f t="shared" si="3"/>
+        <v>2.1159999999999938E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="12">
+        <f>65/100</f>
+        <v>0.65</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="4">
+        <v>671</v>
+      </c>
+      <c r="E8" s="4">
+        <v>430</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="12">
+        <f>65/100</f>
+        <v>0.65</v>
+      </c>
+      <c r="M8" s="13">
+        <f t="shared" si="0"/>
+        <v>0.18143606469726561</v>
+      </c>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="Q8" s="13">
+        <f t="shared" si="3"/>
+        <v>2.0249999999999938E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="12">
+        <f>66/100</f>
+        <v>0.66</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D9" s="4">
+        <v>3.2130000000000001</v>
+      </c>
+      <c r="E9" s="4">
+        <v>437</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="12">
+        <f>66/100</f>
+        <v>0.66</v>
+      </c>
+      <c r="M9" s="13">
+        <f t="shared" si="0"/>
+        <v>0.18706165628906249</v>
+      </c>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="Q9" s="13">
+        <f t="shared" si="3"/>
+        <v>1.2249999999999943E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="12">
+        <f>66/100</f>
+        <v>0.66</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="D10" s="4">
+        <v>3.605</v>
+      </c>
+      <c r="E10" s="4">
+        <v>445</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="12">
+        <f>66/100</f>
+        <v>0.66</v>
+      </c>
+      <c r="M10" s="13">
+        <f t="shared" si="0"/>
+        <v>0.18706165628906249</v>
+      </c>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="Q10" s="13">
+        <f t="shared" si="3"/>
+        <v>1.2249999999999943E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12">
+        <f>66/100</f>
+        <v>0.66</v>
+      </c>
+      <c r="C11" s="4">
+        <v>14</v>
+      </c>
+      <c r="D11" s="4">
+        <v>20.901</v>
+      </c>
+      <c r="E11" s="4">
+        <v>423</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="12">
+        <f>66/100</f>
+        <v>0.66</v>
+      </c>
+      <c r="M11" s="13">
+        <f t="shared" si="0"/>
+        <v>0.18706165628906249</v>
+      </c>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="Q11" s="13">
+        <f t="shared" si="3"/>
+        <v>1.2249999999999943E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="12">
+        <f>66/100</f>
+        <v>0.66</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1.7949999999999999</v>
+      </c>
+      <c r="E12" s="4">
+        <v>175</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="12">
+        <f>66/100</f>
+        <v>0.66</v>
+      </c>
+      <c r="M12" s="13">
+        <f t="shared" si="0"/>
+        <v>0.18706165628906249</v>
+      </c>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="Q12" s="13">
+        <f t="shared" si="3"/>
+        <v>1.2249999999999943E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="12">
+        <f>67/100</f>
+        <v>0.67</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="D13" s="4">
+        <v>898</v>
+      </c>
+      <c r="E13" s="4">
+        <v>384</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="12">
+        <f>67/100</f>
+        <v>0.67</v>
+      </c>
+      <c r="M13" s="13">
+        <f t="shared" si="0"/>
+        <v>0.19277313477539065</v>
+      </c>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="Q13" s="13">
+        <f t="shared" si="3"/>
+        <v>6.2499999999999557E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="12">
+        <f>68.6/100</f>
+        <v>0.68599999999999994</v>
+      </c>
+      <c r="C14" s="4">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="D14" s="4">
+        <v>29.948</v>
+      </c>
+      <c r="E14" s="4">
+        <v>530</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="12">
+        <f>68.6/100</f>
+        <v>0.68599999999999994</v>
+      </c>
+      <c r="M14" s="13">
+        <f t="shared" si="0"/>
+        <v>0.20209014509414058</v>
+      </c>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="Q14" s="13">
+        <f t="shared" si="3"/>
+        <v>8.1000000000000139E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="12">
+        <f>69/100</f>
+        <v>0.69</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="D15" s="4">
+        <v>582</v>
+      </c>
+      <c r="E15" s="4">
+        <v>368</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="12">
+        <f>69/100</f>
+        <v>0.69</v>
+      </c>
+      <c r="M15" s="13">
+        <f t="shared" si="0"/>
+        <v>0.2044537524316406</v>
+      </c>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="Q15" s="13">
+        <f t="shared" si="3"/>
+        <v>2.5000000000000045E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="12">
+        <f t="shared" ref="B16:B17" si="5">69/100</f>
+        <v>0.69</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1.093</v>
+      </c>
+      <c r="E16" s="4">
+        <v>449</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="12">
+        <f t="shared" ref="I16:I17" si="6">69/100</f>
+        <v>0.69</v>
+      </c>
+      <c r="M16" s="13">
+        <f t="shared" si="0"/>
+        <v>0.2044537524316406</v>
+      </c>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="Q16" s="13">
+        <f t="shared" si="3"/>
+        <v>2.5000000000000045E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="12">
+        <f t="shared" si="5"/>
+        <v>0.69</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1.0580000000000001</v>
+      </c>
+      <c r="E17" s="4">
+        <v>477</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="12">
+        <f t="shared" si="6"/>
+        <v>0.69</v>
+      </c>
+      <c r="M17" s="13">
+        <f t="shared" si="0"/>
+        <v>0.2044537524316406</v>
+      </c>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="Q17" s="13">
+        <f t="shared" si="3"/>
+        <v>2.5000000000000045E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="12">
+        <f>70/100</f>
+        <v>0.7</v>
+      </c>
+      <c r="C18" s="4">
+        <v>11.6</v>
+      </c>
+      <c r="D18" s="4">
+        <v>17.295000000000002</v>
+      </c>
+      <c r="E18" s="4">
+        <v>422</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q18" s="13">
+        <f t="shared" si="3"/>
+        <v>2.5000000000000045E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="12">
+        <f>70/100</f>
+        <v>0.7</v>
+      </c>
+      <c r="C19" s="4">
+        <v>13.3</v>
+      </c>
+      <c r="D19" s="4">
+        <v>19.812000000000001</v>
+      </c>
+      <c r="E19" s="4">
+        <v>353</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" s="15">
+        <f>SUM(I2:I17)</f>
+        <v>10.484999999999999</v>
+      </c>
+      <c r="J19" s="15">
+        <f>SUM(J2:J6)</f>
+        <v>3.54</v>
+      </c>
+      <c r="K19" s="15">
+        <f>SUM(K2:K5)</f>
+        <v>3.3499999999999996</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="M19" s="15">
+        <f>SUM(M2:M17)</f>
+        <v>2.955152035280566</v>
+      </c>
+      <c r="N19" s="15">
+        <f>SUM(N2:N6)</f>
+        <v>1.2564683423999996</v>
+      </c>
+      <c r="O19" s="15">
+        <f>SUM(O2:O5)</f>
+        <v>1.9687772031249997</v>
+      </c>
+      <c r="Q19" s="13">
+        <f t="shared" si="3"/>
+        <v>2.5000000000000045E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="12">
+        <f>71/100</f>
+        <v>0.71</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1.0940000000000001</v>
+      </c>
+      <c r="E20" s="4">
+        <v>430</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I20" s="17">
+        <v>16</v>
+      </c>
+      <c r="J20" s="13">
+        <v>5</v>
+      </c>
+      <c r="K20" s="13">
+        <v>4</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="M20" s="15">
+        <v>16</v>
+      </c>
+      <c r="N20" s="16">
+        <v>5</v>
+      </c>
+      <c r="O20" s="15">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="13">
+        <f t="shared" si="3"/>
+        <v>2.250000000000004E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="12">
+        <f>71/100</f>
+        <v>0.71</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1.31</v>
+      </c>
+      <c r="E21" s="4">
+        <v>432</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I21" s="13">
+        <f>I19/I20</f>
+        <v>0.65531249999999996</v>
+      </c>
+      <c r="J21" s="13">
+        <f t="shared" ref="J21:K21" si="7">J19/J20</f>
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="K21" s="13">
+        <f t="shared" si="7"/>
+        <v>0.83749999999999991</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="M21" s="15">
+        <f>M19/M20</f>
+        <v>0.18469700220503538</v>
+      </c>
+      <c r="N21" s="15">
+        <f t="shared" ref="N21:O21" si="8">N19/N20</f>
+        <v>0.2512936684799999</v>
+      </c>
+      <c r="O21" s="15">
+        <f t="shared" si="8"/>
+        <v>0.49219430078124993</v>
+      </c>
+      <c r="Q21" s="13">
+        <f t="shared" si="3"/>
+        <v>2.250000000000004E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="12">
+        <f>72/100</f>
+        <v>0.72</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="D22" s="4">
+        <v>578</v>
+      </c>
+      <c r="E22" s="4">
+        <v>407</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="I22" s="13">
+        <f>POWER(I21-$I$27,2)*I20</f>
+        <v>2.5201562499999983E-2</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="M22" s="15">
+        <f>SUM(M21:O21)/SUM(M20:O20)</f>
+        <v>3.7127398858651406E-2</v>
+      </c>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="Q22" s="13">
+        <f t="shared" si="3"/>
+        <v>6.250000000000011E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="12">
+        <f>81/100</f>
+        <v>0.81</v>
+      </c>
+      <c r="C23" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D23" s="4">
+        <v>7.2889999999999997</v>
+      </c>
+      <c r="E23" s="4">
+        <v>438</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="I23" s="15">
+        <f>I22+M22</f>
+        <v>6.2328961358651389E-2</v>
+      </c>
+      <c r="Q23" s="13">
+        <f t="shared" si="3"/>
+        <v>1.3225000000000023E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="12">
+        <f>84/100</f>
+        <v>0.84</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="D24" s="4">
+        <v>925</v>
+      </c>
+      <c r="E24" s="4">
+        <v>410</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q24" s="13">
+        <f t="shared" si="3"/>
+        <v>2.1025000000000005E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="12">
+        <f t="shared" ref="B25:B26" si="9">84/100</f>
+        <v>0.84</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="D25" s="4">
+        <v>2.0310000000000001</v>
+      </c>
+      <c r="E25" s="4">
+        <v>364</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="I25" s="15">
+        <f>SUM(I2:K17)</f>
+        <v>17.375</v>
+      </c>
+      <c r="Q25" s="13">
+        <f t="shared" si="3"/>
+        <v>2.1025000000000005E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="12">
+        <f>86/100</f>
+        <v>0.86</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1.169</v>
+      </c>
+      <c r="E26" s="4">
+        <v>398</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="I26" s="13">
+        <v>25</v>
+      </c>
+      <c r="Q26" s="13">
+        <f t="shared" si="3"/>
+        <v>2.7225000000000013E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H27" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I27" s="13">
+        <f>I25/I26</f>
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="P27" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q27" s="13">
+        <f>SUM(Q2:Q26)</f>
+        <v>0.11937199999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H28" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="I28" s="13">
+        <f>Q27/I26</f>
+        <v>4.7748799999999987E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K31" s="18">
+        <f>POWER(I22,2)/I28</f>
+        <v>0.1330125055376063</v>
+      </c>
+      <c r="L31" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F27">
+    <sortCondition ref="B1:B27"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58841475-2961-4AE4-9ADD-59061BDC83EF}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="9">
-        <v>2</v>
-      </c>
-      <c r="C2" s="9">
-        <v>0.82450000000000001</v>
-      </c>
-      <c r="D2" s="9">
-        <v>6.1249999999990479E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="9">
-        <v>4</v>
-      </c>
-      <c r="C3" s="9">
-        <v>0.68474999999999997</v>
-      </c>
-      <c r="D3" s="9">
-        <v>3.8825000000016391E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="9">
-        <v>5</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0.69520000000000004</v>
-      </c>
-      <c r="D4" s="9">
-        <v>8.3766999999999037E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="9">
-        <v>2</v>
-      </c>
-      <c r="C5" s="9">
-        <v>0.66949999999999998</v>
-      </c>
-      <c r="D5" s="9">
-        <v>8.4049999999991076E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="9">
-        <v>2</v>
-      </c>
-      <c r="C6" s="9">
-        <v>0.77949999999999997</v>
-      </c>
-      <c r="D6" s="9">
-        <v>1.1400499999999925E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="9">
-        <v>3</v>
-      </c>
-      <c r="C7" s="9">
-        <v>0.63933333333333342</v>
-      </c>
-      <c r="D7" s="9">
-        <v>8.4233333333327831E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="9">
-        <v>4</v>
-      </c>
-      <c r="C8" s="9">
-        <v>0.66075000000000006</v>
-      </c>
-      <c r="D8" s="9">
-        <v>7.0558333333329648E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="9">
-        <v>3</v>
-      </c>
-      <c r="C9" s="9">
-        <v>0.68333333333333324</v>
-      </c>
-      <c r="D9" s="9">
-        <v>1.4943333333333753E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="9">
-        <v>25</v>
-      </c>
-      <c r="C10" s="9">
-        <v>0.69491999999999987</v>
-      </c>
-      <c r="D10" s="9">
-        <v>4.9272433333334602E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="9">
-        <v>0.82450000000000001</v>
-      </c>
-      <c r="B16">
-        <f>A16-GETPIVOTDATA("Среднее по полю Win rate %2",$A$1)</f>
-        <v>0.12958000000000014</v>
-      </c>
-      <c r="C16">
-        <f>B16*B16</f>
-        <v>1.6790976400000036E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="9">
-        <v>0.68474999999999997</v>
-      </c>
-      <c r="B17">
-        <f t="shared" ref="B17:B23" si="0">A17-GETPIVOTDATA("Среднее по полю Win rate %2",$A$1)</f>
-        <v>-1.0169999999999901E-2</v>
-      </c>
-      <c r="C17">
-        <f t="shared" ref="C17:C23" si="1">B17*B17</f>
-        <v>1.0342889999999799E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="9">
-        <v>0.69520000000000004</v>
-      </c>
-      <c r="B18">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C1" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="30"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="15">
+        <v>4899</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="20">
+        <v>1</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="13">
+        <v>5633</v>
+      </c>
+      <c r="C4" s="13">
+        <f>B4-$C$3</f>
+        <v>5633</v>
+      </c>
+      <c r="D4" s="13">
+        <f>B4-B3</f>
+        <v>734</v>
+      </c>
+      <c r="E4" s="21">
+        <f>B4/$B$3</f>
+        <v>1.1498264952031028</v>
+      </c>
+      <c r="F4" s="20">
+        <f>B4/B3</f>
+        <v>1.1498264952031028</v>
+      </c>
+      <c r="G4" s="21">
+        <f>E4-1</f>
+        <v>0.14982649520310276</v>
+      </c>
+      <c r="H4" s="22">
+        <f>F4-1</f>
+        <v>0.14982649520310276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="13">
+        <v>6760</v>
+      </c>
+      <c r="C5" s="13">
+        <f t="shared" ref="C5:C6" si="0">B5-$C$3</f>
+        <v>6760</v>
+      </c>
+      <c r="D5" s="13">
+        <f t="shared" ref="D5:D6" si="1">B5-B4</f>
+        <v>1127</v>
+      </c>
+      <c r="E5" s="21">
+        <f t="shared" ref="E5:E6" si="2">B5/$B$3</f>
+        <v>1.3798734435599103</v>
+      </c>
+      <c r="F5" s="20">
+        <f t="shared" ref="F5:F6" si="3">B5/B4</f>
+        <v>1.200071010118942</v>
+      </c>
+      <c r="G5" s="21">
+        <f t="shared" ref="G5:G6" si="4">E5-1</f>
+        <v>0.37987344355991026</v>
+      </c>
+      <c r="H5" s="22">
+        <f>F5-1</f>
+        <v>0.20007101011894202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="13">
+        <v>6490</v>
+      </c>
+      <c r="C6" s="13">
         <f t="shared" si="0"/>
-        <v>2.80000000000169E-4</v>
-      </c>
-      <c r="C18">
+        <v>6490</v>
+      </c>
+      <c r="D6" s="13">
         <f t="shared" si="1"/>
-        <v>7.8400000000094643E-8</v>
-      </c>
-      <c r="F18">
-        <f>D21/GETPIVOTDATA("Количество по полю Win rate %",$A$1)</f>
-        <v>0.23612516604393247</v>
-      </c>
-      <c r="G18" t="s">
-        <v>70</v>
-      </c>
-      <c r="H18">
-        <v>0.5</v>
-      </c>
-      <c r="I18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="9">
-        <v>0.66949999999999998</v>
-      </c>
-      <c r="B19">
-        <f t="shared" si="0"/>
-        <v>-2.5419999999999887E-2</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="1"/>
-        <v>6.4617639999999422E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="9">
-        <v>0.77949999999999997</v>
-      </c>
-      <c r="B20">
-        <f t="shared" si="0"/>
-        <v>8.45800000000001E-2</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="1"/>
-        <v>7.1537764000000172E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="9">
-        <v>0.63933333333333342</v>
-      </c>
-      <c r="B21">
-        <f t="shared" si="0"/>
-        <v>-5.5586666666666451E-2</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="1"/>
-        <v>3.089877511111087E-3</v>
-      </c>
-      <c r="D21">
-        <f>C25/GETPIVOTDATA("Смещенная дисперсия по полю Win rate %2",$A$1)</f>
-        <v>5.9031291510983115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="9">
-        <v>0.66075000000000006</v>
-      </c>
-      <c r="B22">
-        <f t="shared" si="0"/>
-        <v>-3.4169999999999812E-2</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="1"/>
-        <v>1.1675888999999871E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="9">
-        <v>0.68333333333333324</v>
-      </c>
-      <c r="B23">
-        <f t="shared" si="0"/>
-        <v>-1.1586666666666634E-2</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="1"/>
-        <v>1.3425084444444369E-4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C25">
-        <f>SUM(C16:C23)</f>
-        <v>2.9086153755555563E-2</v>
+        <v>-270</v>
+      </c>
+      <c r="E6" s="21">
+        <f t="shared" si="2"/>
+        <v>1.3247601551337007</v>
+      </c>
+      <c r="F6" s="20">
+        <f t="shared" si="3"/>
+        <v>0.9600591715976331</v>
+      </c>
+      <c r="G6" s="21">
+        <f t="shared" si="4"/>
+        <v>0.32476015513370071</v>
+      </c>
+      <c r="H6" s="22">
+        <f>F6-1</f>
+        <v>-3.9940828402366901E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="24">
+        <f>AVERAGE(B3:B6)</f>
+        <v>5945.5</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="26">
+        <f>(B6-B3)/3</f>
+        <v>530.33333333333337</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="27">
+        <f>POWER((E6/E3),1/3)</f>
+        <v>1.0982783412334676</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" s="29">
+        <f>F7-1</f>
+        <v>9.827834123346757E-2</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>